--- a/The Chocolate Shop - Measurement Plan.xlsx
+++ b/The Chocolate Shop - Measurement Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essamalasaad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essamalasaad/Desktop/Marketing Analytics/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE877A2-84D5-584C-94E9-B22CC19F5CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC346D-6D35-0042-BBA0-57E42C9B284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{7E17426F-16B1-0E4F-87BF-BB956747ADF5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>The Chocolate Shop - Website Measurement Plan</t>
   </si>
@@ -213,6 +213,42 @@
     <t>collecting this data in order to improve
 the customer experience and increase their satisfaction
 so that future purchases can occus again</t>
+  </si>
+  <si>
+    <t>What to Send</t>
+  </si>
+  <si>
+    <t>Name of customer</t>
+  </si>
+  <si>
+    <t>Item number (name)</t>
+  </si>
+  <si>
+    <t>Customer email</t>
+  </si>
+  <si>
+    <t># users</t>
+  </si>
+  <si>
+    <t># completed purchases</t>
+  </si>
+  <si>
+    <t>Ip address</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Name of Customer</t>
+  </si>
+  <si>
+    <t>Customer Email</t>
+  </si>
+  <si>
+    <t>Customer Name (review)</t>
   </si>
 </sst>
 </file>
@@ -294,7 +330,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -494,229 +536,271 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,6 +810,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAC0000"/>
       <color rgb="FF6E6B00"/>
       <color rgb="FF7C0005"/>
       <color rgb="FFFBF1DD"/>
@@ -1039,16 +1124,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA4354C-7BDE-A740-BE58-0E2D0F015EAA}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
@@ -1056,158 +1141,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="45" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1215,225 +1300,322 @@
       <c r="A14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="57" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="66" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="52" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="72"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="72"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="72"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="80"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="80"/>
+      <c r="B32" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="86"/>
+      <c r="B33" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
+  <mergeCells count="57">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D6"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
@@ -1446,39 +1628,11 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:D6"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
